--- a/publicationsGenerator/table.xlsx
+++ b/publicationsGenerator/table.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0259d400e1551526/NCM_lab/matlab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\safe\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="11_AD4DF75460589B3ACB7284283F1A5F585ADEDD81" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1AAAEE25-88CC-4170-8D24-C0E040D29D4D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$B$1:$F$197</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="430">
   <si>
     <t>N</t>
   </si>
@@ -60,15 +62,6 @@
     <t>http://www.tandfonline.com/doi/abs/10.1080/00150193.2013.786600</t>
   </si>
   <si>
-    <t>Behavior of the low-frequency conductivity of silver iodide nanocomposites in the superionic phase transition</t>
-  </si>
-  <si>
-    <t>T. Vergentev, E. Koroleva, D. Kurdukov, A. Naberezhnov, A. Filimonov</t>
-  </si>
-  <si>
-    <t>http://journals.ioffe.ru/ftt/2013/01/page-157.html.ru</t>
-  </si>
-  <si>
     <t>journal</t>
   </si>
   <si>
@@ -85,13 +78,1252 @@
   </si>
   <si>
     <t>https://www.tandfonline.com/doi/full/10.1080/00150193.2019.1574666</t>
+  </si>
+  <si>
+    <t>Aleksandrova, I. P., Ivanov, Y. N., Sukhovskii, A. A., &amp; Vakhrushev, S. B.</t>
+  </si>
+  <si>
+    <t>23Na NMR in the relaxor ferroelectric Na1/2Bi 1/2TiO3</t>
+  </si>
+  <si>
+    <t>Aleksandrova, I. P., Sukhovskii, A. A., Ivanov, Y. N., Yablonskaya, Y. E., &amp; Vakhrushev, S. B.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S106378340606031X</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S1063783408030177</t>
+  </si>
+  <si>
+    <t>23Na NMR study of the local order in the Na1/2Bi 1/2TiO3 structure in a weak magnetic field.</t>
+  </si>
+  <si>
+    <t>Phase Transitions</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/01411590500496238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. I. Beskrovny, S. G. Vasilovskiĭ, S. B. Vakhrushev, D. A. Kurdyukov, O. I. Zvorykina, A. A. Naberezhnov, N. M. Okuneva, M. Tovar, E. Rysiakiewicz-Pasek &amp; P. Jaguś </t>
+  </si>
+  <si>
+    <t>Temperature dependences of the order parameter for sodium nitrite embedded into porous glasses and opals</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S1063783410050410</t>
+  </si>
+  <si>
+    <t>Bosak, A., Chernyshov, D., &amp; Vakhrushev, S.</t>
+  </si>
+  <si>
+    <t>Glass-like structure of a lead-based relaxor ferroelectric</t>
+  </si>
+  <si>
+    <t>Journal of Applied Crystallography</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1107/S0021889812039015</t>
+  </si>
+  <si>
+    <t>Bosak, A., Chernyshov, D., Vakhrushev, S., &amp; Krisch, M.</t>
+  </si>
+  <si>
+    <t>Diffuse scattering in relaxor ferroelectrics: True three-dimensional mapping, experimental artefacts and modelling</t>
+  </si>
+  <si>
+    <t>Acta Crystallographica Section A: Foundations of Crystallography</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1107/S0108767311040281</t>
+  </si>
+  <si>
+    <t>Broad-band dielectric response of PbMg1/3Nb2/3O3 relaxor ferroelectrics: Single crystals, ceramics and thin films</t>
+  </si>
+  <si>
+    <t>Journal of the European Ceramic Society</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jeurceramsoc.2006.02.003</t>
+  </si>
+  <si>
+    <t>V.BovtunaS., Veljkoa, S. Kambaa, J. Petzelta, S. Vakhrushev, Y. Yakymenkoc, K. Brinkmand, N. Setterd</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/00150193.2016.1217723</t>
+  </si>
+  <si>
+    <t>Composition dependence of the diffuse scattering in cubic PbZr1-xTixO3.</t>
+  </si>
+  <si>
+    <t>Iurii Bronwald,Daria Andronikova,Roman Burkovsky,Dmitry Chernyshev,N. G. Leontiev,I. N. Leontiev,Zuo-Guang Ye &amp;Sergey Vakhrushev</t>
+  </si>
+  <si>
+    <t>Burkovsky, R., Vakhrushev, S. B., Shapiro, S. M., Ivanov, A., Hirota, K., &amp; Matsuura, M.</t>
+  </si>
+  <si>
+    <t>Inelastic and quasielastic neutron scattering in PbMg1/3Nb 2/3O3 above the burns temperature</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/00150193.2010.505858</t>
+  </si>
+  <si>
+    <t>Dmowski, W., Vakhrushev, S. B., Jeong, I. -., Hehlen, M. P., Trouw, F., &amp; Egami, T.</t>
+  </si>
+  <si>
+    <t>Local lattice dynamics and the origin of the relaxor ferroelectric behavior</t>
+  </si>
+  <si>
+    <t>Physical Review Letters</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1103/PhysRevLett.100.137602</t>
+  </si>
+  <si>
+    <t>Feygenson, M., Schweika, W., Ioffe, A., Vakhrushev, S. B., &amp; Bruckel, T.</t>
+  </si>
+  <si>
+    <t>Magnetic phase transition in confined MnO nanoparticles studied by polarized neutron scattering</t>
+  </si>
+  <si>
+    <t>Physical Review B - Condensed Matter and Materials Physics</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1103/PhysRevB.81.064423</t>
+  </si>
+  <si>
+    <t>Fokin, A., Kumzerov, Y., Koroleva, E., Naberezhnov, A., Smirnov, O., Tovar, M., . . . Glazman, M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ferroelectric phase transitions in sodium nitrite nanocomposites</t>
+  </si>
+  <si>
+    <t>Journal of Electroceramics</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10832-008-9431-4</t>
+  </si>
+  <si>
+    <t>Reassessment of the burns temperature and its relationship to the diffuse scattering, lattice dynamics, and thermal expansion in relaxor pb (Mg1/3 Nb2/3) O3</t>
+  </si>
+  <si>
+    <t>P. M. Gehring, H. Hiraka, C. Stock, S.-H. Lee, W. Chen, Z.-G. Ye, S. B. Vakhrushev, and Z. Chowdhuri</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1103/PhysRevB.79.224109</t>
+  </si>
+  <si>
+    <t>Neutron powder diffraction and single crystal X-ray magnetic resonant and non-resonant scattering studies of the doped multiferroic tb(bi)MnO 3</t>
+  </si>
+  <si>
+    <t>European Physical Journal B</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1140/epjb/e2012-20693-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I. V. Golosovsky, A. A. Mukhin, V. Yu. Ivanov, S. B. Vakhrushev, E. I. Golovenchits, V. A. Sanina, J. -U. Hoffmann, R. Feyerherm &amp; E. Dudzik </t>
+  </si>
+  <si>
+    <t>Golosovsky, I. V., Smirnov, O. P., Delaplane, R. G., Wannberg, A., Kibalin, Y. A., Naberezhnov, A. A., &amp; Vakhrushev, S. B.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1140/epjb/e2006-00446-8</t>
+  </si>
+  <si>
+    <t>Neutron diffraction study of the BiFeO31-xPbTiO3x solid solution: Nanostructured multiferroic system.</t>
+  </si>
+  <si>
+    <t>Atomic motion in se nanoparticles embedded into a porous glass matrix.</t>
+  </si>
+  <si>
+    <t>Journal of Physics Condensed Matter</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1088/0953-8984/27/4/046004</t>
+  </si>
+  <si>
+    <t>I V Golosovsky, S B Vakhrushev, J L García-Muñoz, M Brunelli, W-M Zhu, Z-G Ye and V Skumryev</t>
+  </si>
+  <si>
+    <t>Koroleva, E., Naberezhnov, A., Rysiakiewicz-Pasek, E., Vakhrushev, S., Sysoeva, A., &amp; Kumzerov, Y.</t>
+  </si>
+  <si>
+    <t>Dielectric response of potassium nitrate in a restricted geometry</t>
+  </si>
+  <si>
+    <t>Composites Part B: Engineering</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.compositesb.2016.03.046</t>
+  </si>
+  <si>
+    <t>Koroleva, E. Y., Nuzhnyy, D., Pokorny, J., Kamba, S., Kumzerov, Y. A., Vakhrushev, S. B., &amp; Petzelt, J.</t>
+  </si>
+  <si>
+    <t>The negative phonon confinement effect in nanoscopic sodium nitrite</t>
+  </si>
+  <si>
+    <t>Nanotechnology</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1088/0957-4484/20/39/395706</t>
+  </si>
+  <si>
+    <t>Kutnjak, Z., Vodopivec, B., Blinc, R., Fokin, A. V., Kumzerov, Y. A., &amp; Vakhrushev, S. B.</t>
+  </si>
+  <si>
+    <t>Calorimetric and dielectric studies of ferroelectric sodium nitrite confined in a nanoscale porous glass matrix.</t>
+  </si>
+  <si>
+    <t>Journal of Chemical Physics</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1063/1.2007687</t>
+  </si>
+  <si>
+    <t>Mamontov, E., Kumzerov, Y. A., &amp; Vakhrushev, S. B.</t>
+  </si>
+  <si>
+    <t>Diffusion of benzene confined in the oriented nanochannels of chrysotile asbestos fibers</t>
+  </si>
+  <si>
+    <t>Physical Review E - Statistical, Nonlinear, and Soft Matter Physics</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1103/PhysRevE.72.051502</t>
+  </si>
+  <si>
+    <t>Translational dynamics of water in the nanochannels of oriented chrysotile asbestos fibers</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1103/PhysRevE.71.061502</t>
+  </si>
+  <si>
+    <t>Mamontov, E., Vakhrushev, S. B., Kumzerov, Y. A., Alatas, A., &amp; Sinn, H.</t>
+  </si>
+  <si>
+    <t>Acoustic phonons in chrysotile asbestos probed by high-resolution inelastic x-ray scattering.</t>
+  </si>
+  <si>
+    <t>Solid State Communications</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ssc.2009.01.033</t>
+  </si>
+  <si>
+    <t>Naberezhnov, A. A., Petrunin, A. A., Sovestnov, A. E., Kurdyukov, D. A., Fomin, E. V., &amp; Vakhrushev, S. B.</t>
+  </si>
+  <si>
+    <t>X-ray mn K line shifts in manganese oxide nanoparticles.</t>
+  </si>
+  <si>
+    <t>Technical Physics Letters</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S1063785015120275</t>
+  </si>
+  <si>
+    <t>Temperature dependent conductivity and broadband dielectric response of precursor-derived Nb2O5</t>
+  </si>
+  <si>
+    <t>Ceramics International</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ceramint.2019.12.213</t>
+  </si>
+  <si>
+    <t>Bias-field effect on the temperature anomalies of dielectric permittivity in PbMg1 3Nb2 3O3-PbTiO3 single crystals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Physical Review B - Condensed Matter and Materials Physics</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1103/PhysRevB.72.184104</t>
+  </si>
+  <si>
+    <t>I. P. Raevski, S. A. Prosandeev, A. S. Emelyanov, S. I. Raevskaya, Eugene V. Colla, D. Viehland, W. Kleemann, S. B. Vakhrushev, J-L. Dellis, M. El Marssi, and L. Jastrabik</t>
+  </si>
+  <si>
+    <t>Vakhrushev, S., Ivanov, A., &amp; Kulda, J.</t>
+  </si>
+  <si>
+    <t>Diffuse neutron scattering in relaxor ferroelectric PbMg 1/3Nb2/3O3</t>
+  </si>
+  <si>
+    <t>Physical Chemistry Chemical Physics</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/b416454g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vakhrushev, S. B., Burkovsky, R. G., Shapiro, S., &amp; Ivanov, A. </t>
+  </si>
+  <si>
+    <t>Two-mode behavior of the PbMg1/3Nb2/3O3 relaxor</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S106378341005001X</t>
+  </si>
+  <si>
+    <t>Structure and dielectric response of Na1 - X K x NO2 nanocomposite solid solutions</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S1063783408080271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S. B. Vakhrushev, I. V. Golosovsky, E. Yu. Koroleva, A. A. Naberezhnov, N. M. Okuneva, O. P. Smirnov, A. V. Fokin, M. Tovar &amp; M. Glazman </t>
+  </si>
+  <si>
+    <t>Vakhrushev, S. B., Ivanov, A., Kumzerov, Y. A., Naberezhnov, A. A., Petrov, A. A., Semkin, V. N., &amp; Fokin, A. V</t>
+  </si>
+  <si>
+    <t>Investigation of longitudinal vibrations of -O-H groups in chrysotile asbestos by neutron scattering and polarized infrared spectroscopy.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S1063783411020338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vakhrushev, S. B., Shaganov, A. P., Dkhil, B., Lebolock, D., &amp; Ouvada, K. </t>
+  </si>
+  <si>
+    <t>Study of the formation processes of a domain nanostructure in relaxor ferroelectrics</t>
+  </si>
+  <si>
+    <t>Physics of Particles and Nuclei Letters</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S1547477111100190</t>
+  </si>
+  <si>
+    <t>Yu Vanina, P., Vakhrushev, S. B., Naberezhnov, A. A., &amp; Bosak, A. A.</t>
+  </si>
+  <si>
+    <t>Multiscale local ordering in the prototypical uniaxial relaxor sr 0.6 ba 0.4 nb 2 O 6 single crystal at room temperature</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1088/1361-648X/ab03b2</t>
+  </si>
+  <si>
+    <t>Structural, magnetic, and thermal properties of the compound Tb0.8Sm0.2Fe2 with a laves phase structure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T. A. Aleroeva, I. S. Tereshina, T. P. Kaminskaya, Z. S. Umkhaeva, A. V. Filimonov, P. Yu. Vanina, O. A. Alekseeva &amp; A. S. Ilyushin </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S1063783419120023</t>
+  </si>
+  <si>
+    <t>Andreeva, N., Alikin, D., Turygin, A., Kholkin, A. L., Shur, V. Y., Filimonov, A., &amp; Lessovaia, S.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/00150193.2015.998976</t>
+  </si>
+  <si>
+    <t>Temperature dependence of surface polar state of SrTiO3 ceramics obtained by piezoresponse force microscopy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ferroelectrics</t>
+  </si>
+  <si>
+    <t>SEM and AFM studies of two-phase magnetic alkali borosilicate glasses</t>
+  </si>
+  <si>
+    <t>Scientific World Journal</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1155/2017/9078152</t>
+  </si>
+  <si>
+    <t>N. Andreeva , M. Tomkovich, A. Naberezhnov , B. Nacke, A. Filimonov, O. Alekseeva, P. Vanina, and V. Nizhankovskii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andreeva, N. V., Filimonov, A. V., Rudskoi, A. I., Burkhanov, G. S., Tereshina, I. S., Politova, G. A., &amp; Pelevin, I. A. </t>
+  </si>
+  <si>
+    <t>A study of nanostructure magnetosolid Nd–Ho–Fe–Co–B materials via atomic force microscopy and magnetic force microscopy</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S1063783416090079</t>
+  </si>
+  <si>
+    <t>Andreeva, N. V., Naberezhnov, A. A., Tomkovich, M. V., Nacke, B., Kichigin, V., Rudskoy, A. I., &amp; Filimonov, A. V.</t>
+  </si>
+  <si>
+    <t>Surface morphology and structure of double-phase magnetic alkali borosilicate glasses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Metal Science and Heat Treatment</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s11041-016-0039-z</t>
+  </si>
+  <si>
+    <t>Andreeva, N. V., Pertsev, N. A., Andronikova, D. A., Filimonov, A. V., Leontiev, N. G., Leontyev, I. N., &amp; Vakhrushev, S. B.</t>
+  </si>
+  <si>
+    <t>Domain structures and correlated out-of-plane and in-plane polarization reorientations in pb(Zr0.96Ti0.04)O3 single crystal via piezoresponse force microscopy</t>
+  </si>
+  <si>
+    <t>AIP Advances</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1063/1.4962991</t>
+  </si>
+  <si>
+    <t>Andreeva, N. V., Tyunina, M., Filimonov, A. V., Rudskoy, A. I., Pertsev, N. A., &amp; Vakhrushev, S. B.</t>
+  </si>
+  <si>
+    <t>Low-temperature evolution of local polarization properties of PbZr 0.65Ti0.35O3 thin films probed by piezoresponse force microscopy.</t>
+  </si>
+  <si>
+    <t>Applied Physics Letters</t>
+  </si>
+  <si>
+    <t> https://doi.org/10.1063/1.4869147</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Low-temperature dynamics of ferroelectric domains in PbZr0.3Ti0.7O3 epitaxial thin films studied by piezoresponse force microscopy.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1063/1.4934180</t>
+  </si>
+  <si>
+    <t>Andreeva, V. N., Filimonov, A. V., Rudskoy, A. I., &amp; Bdikin, I.</t>
+  </si>
+  <si>
+    <t>N. V. Andreeva, A. F. Vakulenko, A. Petraru, R. Soni, H. Kohlstedt, A. V. Filimonov, A. I. Rudskoy, S. B. Vakhrushev, and N. A. Pertsev</t>
+  </si>
+  <si>
+    <t>A study of the physical properties of strontium titanate ceramics in the temperature range OF 8 – 295 K by the method of piezoresponse force microscopy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Metal Science and Heat Treatment</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s11041-015-9800-y</t>
+  </si>
+  <si>
+    <t>Critical scattering of synchrotron radiation in lead zirconate–titanate with low titanium concentrations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D. A. Andronikova, A. A. Bosak, Iu. A. Bronwald, R. G. Burkovsky, S. B. Vakhrushev, N. G. Leontiev, I. N. Leontiev, A. K. Tagantsev, A. V. Filimonov &amp; D. Yu. Chernyshov </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S1063783415120045</t>
+  </si>
+  <si>
+    <t>Structure of magnetic nanoclusters in ferriferous alkali borosilicate glasses.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S1063783412100058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T. V. Antropova, I. N. Anfimova, I. V. Golosovsky, Yu. A. Kibalin, A. A. Naberezhnov, N. I. Porechnaya, O. A. Pshenko &amp; A. V. Filimonov </t>
+  </si>
+  <si>
+    <t>Bondarenko, V. B., Davydov, S. N., &amp; Filimonov, A. V.</t>
+  </si>
+  <si>
+    <t>Inherent potential inhomogeneity on the semiconductor surface for equilibrium impurity distribution.</t>
+  </si>
+  <si>
+    <t>Semiconductors</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S1063782610010069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bondarenko, V. B., &amp; Filimonov, A. V. </t>
+  </si>
+  <si>
+    <t>Criterion for strong localization on a semiconductor surface in the Thomas–Fermi approximation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Semiconductors</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S1063782617100062</t>
+  </si>
+  <si>
+    <t>Bondarenko, V. B., Filimonov, A. V., &amp; Koroleva, E. Y.</t>
+  </si>
+  <si>
+    <t>The schottky barrier at homogeneous impurity distribution in a semiconductor.</t>
+  </si>
+  <si>
+    <t>Journal of Surface Investigation</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S1027451010050290</t>
+  </si>
+  <si>
+    <t>Bondarenko, V. B., Filimonov, A. V., &amp; Rudskoy, A. I.</t>
+  </si>
+  <si>
+    <t>Chaotic potential on semiconductor boundary under conditions of the partial self-organization of the surface ion charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bulletin of the Russian Academy of Sciences: Physics</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3103/S1062873814060082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borisov, S. A., Okuneva, N. M., Vakhrushev, S. B., Naberezhnov, A. A., Volk, T. R., &amp; Filimonov, A. V. </t>
+  </si>
+  <si>
+    <t>Critical neutron scattering in a uniaxial relaxor Sr0.6Ba0.4Nb2O6</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S1063783413020066</t>
+  </si>
+  <si>
+    <t>Lattice dynamics in the paraelectric phase of PbHfO3studied by inelastic x-ray scattering</t>
+  </si>
+  <si>
+    <t>R G Burkovsky, D Andronikova, Yu Bronwald, M Krisch, K Roleder, A Majchrowski, A V Filimonov, A I Rudskoy and S B Vakhrushev</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1088/0953-8984/27/33/335901</t>
+  </si>
+  <si>
+    <t>Triggered incommensurate transition in PbHfO3</t>
+  </si>
+  <si>
+    <t>Roman G. Burkovsky, Iurii Bronwald, Daria Andronikova, Georgiy Lityagin, Julita Piecha, Sofia-Michaela Souliou, Andrzej Majchrowski, Alexey Filimonov, Andrey Rudskoy, Krystian Roleder, Alexei Bosak, and Alexander Tagantsev</t>
+  </si>
+  <si>
+    <t>Physical Review B</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1103/PhysRevB.100.014107</t>
+  </si>
+  <si>
+    <t>Critical scattering and incommensurate phase transition in antiferroelectric PbZrO3 under pressure.</t>
+  </si>
+  <si>
+    <t>Scientific Reports</t>
+  </si>
+  <si>
+    <t>R. G. Burkovsky, I. Bronwald, D. Andronikova, B. Wehinger, M. Krisch, J. Jacobs, D. Gambetti, K. Roleder,</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/srep41512</t>
+  </si>
+  <si>
+    <t>Structural heterogeneity and diffuse scattering in morphotropic lead zirconate-titanate single crystals</t>
+  </si>
+  <si>
+    <t>R. G. Burkovsky, Yu. A. Bronwald, A. V. Filimonov, A. I. Rudskoy, D. Chernyshov, A. Bosak, J. Hlinka, X. Long, Z.-G. Ye, and S. B. Vakhrushev</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1103/PhysRevLett.109.097603</t>
+  </si>
+  <si>
+    <t>Burkovsky, R. G., Filimonov, A. V., Rudskoy, A. I., Hirota, K., Matsuura, M., &amp; Vakhrushev, S. B.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Diffuse scattering anisotropy and inhomogeneous lattice deformations in the lead magnoniobate relaxor PMN above the burns temperature</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1103/PhysRevB.85.094108</t>
+  </si>
+  <si>
+    <t>Lattice dynamics and antiferroelectricity in PbZrO3 tested by x-ray and brillouin light scattering</t>
+  </si>
+  <si>
+    <t>R. G. Burkovsky, A. K. Tagantsev, K. Vaideeswaran, N. Setter, S. B. Vakhrushev, A. V. Filimonov, A. Shaganov, D. Andronikova, A. I. Rudskoy, A. Q. R. Baron, H. Uchiyama, D. Chernyshov, Z. Ujma, K. Roleder, A. Majchrowski, and Jae-Hyeon Ko</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1103/PhysRevB.90.144301</t>
+  </si>
+  <si>
+    <t>Effect of tb and al substitution within the rare earth and cobalt sublattices on magnetothermal properties of Dy0.5Ho0.5Co2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Journal of Magnetism and Magnetic Materials</t>
+  </si>
+  <si>
+    <t>V.B.Chzhana, E.A.Tereshin, A.B.Mikhailova, G.A.Politovaad, .S.Tereshina, V.I.Kozlov, J.Ćwikd, K.Nenkov, O.A.Alekseev, A.V.Filimonov</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jmmm.2017.02.025</t>
+  </si>
+  <si>
+    <t>Filimonov, A. V., Koroleva, E. Y., Bondarenko, V. B., &amp; Tyukin, V. Y.</t>
+  </si>
+  <si>
+    <t>Degradation of GaAsP photocathodes under bombardment by ions of residual gases</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S1027451010030250</t>
+  </si>
+  <si>
+    <t>Modulated structures in PbHfO3 crystals at high-pressure-high-temperature conditions</t>
+  </si>
+  <si>
+    <t>Defect and Diffusion Forum</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.4028/www.scientific.net/DDF.386.149</t>
+  </si>
+  <si>
+    <t>Maria Knjazeva, Yurii Bronwald, Daria Andronikova, Georgiy Lityagin, Alexey Bosak, Paraskevas Parisiades, Krystian Roleder, Andrzej Majchrowski, Alexander Fotiadi, Alexey V. Filimonov,  Roman G. Burkovsky</t>
+  </si>
+  <si>
+    <t>Phase transitions in lead hafnate under high pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. A. Knyazeva, D. A. Andronikova, G. A. Lityagin, I. A. Bronwald, P. Paraskevas, A. Majchrowski, K. Roleder, A. V. Filimonov &amp; R. G. Burkovsky </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S1063783419100202</t>
+  </si>
+  <si>
+    <t>Koroleva, E. Y., Burdin, D. Y., Kumzerov, Y. A., Sysoeva, A. A., Filimonov, A. V., &amp; Vakhrushev, S. B.</t>
+  </si>
+  <si>
+    <t>Dielectric properties of magnetic-ferroelectric CoO–NaNO2–porous glass nanocomposite</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S1063783417100237</t>
+  </si>
+  <si>
+    <t>Lessovaia, S., Dultz, S., Goryachkin, S., Plotze, M., Polekhovsky, Y., Andreeva, N., &amp; Filimonov, A.</t>
+  </si>
+  <si>
+    <t>Mineralogy and pore space characteristics of traprocks from central siberia, russia: Prerequisite of weathering trends and soil formation</t>
+  </si>
+  <si>
+    <t>Applied Clay Science</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.clay.2014.09.039</t>
+  </si>
+  <si>
+    <t>Lessovaia, S. N., Dultz, S., Plotze, M., Andreeva, N., Polekhovsky, Y., Filimonov, A., &amp; Momotova, O.</t>
+  </si>
+  <si>
+    <t>Soil development on basic and ultrabasic rocks in cold environments of russia traced by mineralogical composition and pore space characteristics</t>
+  </si>
+  <si>
+    <t>Catena</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.catena.2014.11.020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Intermediate phase with orthorhombic symmetry displacement patterns in epitaxial PbZrO3 thin films at high temperatures</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/00150193.2018.1470826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G. A. Lityagin,D. A. Andronikova,Iu. A. Bronwald,M. A. Kniazeva,M. Jankowski,F. Carla,R. Gao,A. Dasgupta,A. V. Filimonov &amp;R. G. Burkovsky </t>
+  </si>
+  <si>
+    <t>The mechanism of charge carrier generation at the TiO2—n-si heterojunction activated by gold nanoparticles.</t>
+  </si>
+  <si>
+    <t>Semiconductor Science and Technology</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1088/1361-6641/aac4f3</t>
+  </si>
+  <si>
+    <t>Maxim V Mishin, Alexander A Vorobyev, Anastasia S Kondrateva, Ekaterina Y Koroleva, Platon A Karaseov, Polina G Bespalova, Alexander L Shakhmin,  Anatoly V Glukhovskoy, Marc Christopher Wurz and Alexey V Filimonov</t>
+  </si>
+  <si>
+    <t>Naberezhnov, A., Porechnaya, N., Nizhankovskii, V., Filimonov, A., &amp; Nacke, B.</t>
+  </si>
+  <si>
+    <t>Morphology and magnetic properties of ferriferous two-phase sodium borosilicate glasses.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1155/2014/320451</t>
+  </si>
+  <si>
+    <t>Naberezhnov, A. A., Koroleva, E. Y., Filimonov, A. V., Rudskoy, A. I., Nacke, B., Kichigin, V., &amp; Nizhankovskii, V.</t>
+  </si>
+  <si>
+    <t>Production of magnetic alkali-borosilicate glasses by induction melting</t>
+  </si>
+  <si>
+    <t>Metal Science and Heat Treatment</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s11041-015-9822-5</t>
+  </si>
+  <si>
+    <t>Gokul Nanda Eranezhuth Wasan Awina Tatiana Gasyak Ekaterina Koroleva Alexey Filimonov Sergey Vakhrushev Ravindran Sujith Ravi Kumar</t>
+  </si>
+  <si>
+    <t>Neff, H., Semchinova, O. K., Lima, A. M. N., Filimonov, A., &amp; Holzhueter, G.</t>
+  </si>
+  <si>
+    <t>Photovoltaic properties and technological aspects of In1-xGaxN/Si, ge (0&lt;x&lt;0.6) heterojunction solar cells</t>
+  </si>
+  <si>
+    <t>Solar Energy Materials and Solar Cells</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.solmat.2005.06.002</t>
+  </si>
+  <si>
+    <t>Spontaneous and external magnetic field-induced magnetostriction in RCo2-based multicomponent alloys.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G. A. Politova, V. B. Chzhan, I. S. Tereshina, G. S. Burkhanov, A. A. Manakov, O. A. Alekseeva, A. V. Filimonov &amp; A. S. Ilyushin </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S1063783415120288</t>
+  </si>
+  <si>
+    <t>Politova, G. A., Ganin, M. A., Mikhailova, A. B., &amp; Filimonov, A. V.</t>
+  </si>
+  <si>
+    <t>Magnetostrictive anomalies of rare earth laves phases with morphotropic phase transition</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S1063783420060232</t>
+  </si>
+  <si>
+    <t>Magnetocaloric effect and magnetostrictive deformation in tb-dy-gd-co-al with laves phase structure</t>
+  </si>
+  <si>
+    <t>Journal of Magnetism and Magnetic Materials</t>
+  </si>
+  <si>
+    <t>G.A.Politova N.Yu.Pankratov P.Yu.Vanina A.V.Filimonov A.I.Rudskoy G.S.Burkhanova A.S.Ilyushinb S.Tereshina</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jmmm.2017.11.016</t>
+  </si>
+  <si>
+    <t>Semchinova, O. K., Aderhold, J., Graul, J., Filimonov, A., &amp; Neff, H.</t>
+  </si>
+  <si>
+    <t>Photoluminescence, depth profile, and lattice instability of hexagonal InN films</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applied Physics Letters,</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1063/1.1634691</t>
+  </si>
+  <si>
+    <t>The origin of antiferroelectricity in PbZrO3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nature Communications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. K. Tagantsev, K. Vaideeswaran, S. B. Vakhrushev, A. V. Filimonov, R. G. Burkovsky, A. Shaganov, D. Andronikova, A. I. Rudskoy, A. Q. R. Baron, H. Uchiyama, D. Chernyshov, A. Bosak, Z. Ujma, K. Roleder, A. Majchrowski, J.-H. Ko &amp; N. Setter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Udovenko, S. A., Chernyshov, D. Y., Andronikova, D. A., Filimonov, A. V., &amp; Vakhrushev, S. B. </t>
+  </si>
+  <si>
+    <t>The technique of studying X-ray scattering over wide temperature range in an electric field</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S1063783418050323</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/ncomms3229</t>
+  </si>
+  <si>
+    <t>Vainshtein, S., Zemlyakov, V., Egorkin, V., Maslevtsov, A., &amp; Filimonov, A.</t>
+  </si>
+  <si>
+    <t>Miniature high-power nanosecond laser diode transmitters utilizing simplest avalanche drivers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IEEE Transactions on Power Electronics</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/TPEL.2018.2853563</t>
+  </si>
+  <si>
+    <t>Vainshtein, S. N., Duan, G., Filimonov, A. V., &amp; Kostamovaara, J. T.</t>
+  </si>
+  <si>
+    <t>Switching mechanisms triggered by a collector voltage ramp in avalanche transistors with short-connected base and emitter</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Electron Devices</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/TED.2016.2581320</t>
+  </si>
+  <si>
+    <t>Vergentev, T., Banshchikov, A., Filimonov, A., Koroleva, E., Sokolov, N., &amp; Wurz, M. C.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/14686996.2016.1246940</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Longitudinal conductivity of LaF3/SrF2 multilayer heterostructures. </t>
+  </si>
+  <si>
+    <t>Science and Technology of Advanced Materials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vergent'ev, T. Y., Koroleva, E. Y., Kurdyukov, D. A., Naberezhnov, A. A., &amp; Filimonov, A. V. </t>
+  </si>
+  <si>
+    <t>Behavior of the low-frequency conductivity of silver iodide nanocomposites in the superionic phase transition region.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S1063783413010320</t>
+  </si>
+  <si>
+    <t>Golosovsky, I. V., Naberezhnov, A. A., Kurdyukov, D. A., Mirebeau, I., &amp; Andre, G.</t>
+  </si>
+  <si>
+    <t>Temperature evolution of copper oxide nanoparticles in porous glasses.</t>
+  </si>
+  <si>
+    <t>Crystallography Reports</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S1063774510051025</t>
+  </si>
+  <si>
+    <t>Korotkova, T., Karaeva, O., Naberezhnov, A., Rysiakiewichz-Pasek, E., &amp; Korotkov, L.</t>
+  </si>
+  <si>
+    <t>Dielectric and mechanical relaxations in the vicinity of glass transitions in confined polar copolymers VDF/Te and VDF/Tr.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ssc.2012.02.020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumzerov, Y. A., &amp; Naberezhnov, A. A. </t>
+  </si>
+  <si>
+    <t>Effect of restricted geometry on the superconducting properties of low-melting metals (review article)</t>
+  </si>
+  <si>
+    <t>Low Temperature Physics</t>
+  </si>
+  <si>
+    <t>Naberezhnov, A. A., Alekseeva, O. A., Stukova, E. V., Borisov, S. A., &amp; Simkin, V. G.</t>
+  </si>
+  <si>
+    <t>Effect of BaTiO3 impurity on the NaNO2 structure in (0.9)NaNO2 + (0.1)BaTiO3 composite</t>
+  </si>
+  <si>
+    <t>Technical Physics</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S1063784215120154</t>
+  </si>
+  <si>
+    <t>Naberezhnov, A. A., Alekseeva, O. A., Vanina, P. Y., Chernyshov, D. Y., Sysoeva, A. A., &amp; Rysiakiewicz-Pasek, E.</t>
+  </si>
+  <si>
+    <t>Order-parameter temperature dependences in nanocomposites of porous Glass–Sodium nitrite</t>
+  </si>
+  <si>
+    <t>Bulletin of the Russian Academy of Sciences: Physics</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3103/S1062873818030164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naberezhnov, A. A., Ryukhtin, V., &amp; Sysoeva, A. A. </t>
+  </si>
+  <si>
+    <t>Internal structure of magnetic porous glasses and the related ferroelectric nanocomposites</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S1063783417020196</t>
+  </si>
+  <si>
+    <t>Naberezhnov, A. A., Sovestnov, A. E., &amp; Fokin, A. V.</t>
+  </si>
+  <si>
+    <t>Crystal structure of indium and lead under confined geometry conditions</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S1063784211050240</t>
+  </si>
+  <si>
+    <t>Panova, G. K., Nikonov, A. A., Naberezhnov, A. A., &amp; Fokin, A. V.</t>
+  </si>
+  <si>
+    <t>Resistance and magnetic susceptibility of superconducting lead embedded in nanopores of glass</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S1063783409110043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panova, G. K., Naberezhnov, A. A., &amp; Fokin, A. V. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Surface and volume superconductivity of pb embedded in nanopores.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S1063783408070299</t>
+  </si>
+  <si>
+    <t>Atomic dynamics of lead embedded into nanoporous glass</t>
+  </si>
+  <si>
+    <t>Journal of Experimental and Theoretical Physics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. P. Parshin, M. G. Zemlyanov, G. Kh. Panov, A. A. Shikov, A. A. Naberezhnov, Yu. A. Kumzerov, I. V. Golosovsky &amp; A. S. Ivanov </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S1063776110120125</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1063/1.4971168</t>
+  </si>
+  <si>
+    <t>Atomic dynamics of tin nanoparticles embedded into porous glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. P. Parshin, M. G. Zemlyanov, G. Kh. Panova, A. A. Shikov, Yu. A. Kumzerov, A. A. Naberezhnov, I. Sergueev, W. Crichton, A. I. Chumakov &amp; R. Rüffer </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S1063776112010141</t>
+  </si>
+  <si>
+    <t>Rogazinsksya, O. V., Sidorkin, A. S., Milovidova, S. D., Naberezhnov, A. A., Matveev, N. N., Popravko, N. G., &amp; Fokin, A. V.</t>
+  </si>
+  <si>
+    <t>Ferroelectricity in nanocomposites based on porous glass with inclusions of NaNO 2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3103/S1062873811100285</t>
+  </si>
+  <si>
+    <t>Seregin, M., Naberezhnov, A., Rysiakiewicz-Pasek, E., Fokin, A., Sysoeva, A., Franz, A., &amp; Tovar, M.</t>
+  </si>
+  <si>
+    <t>Neutron andy diffraction studies of KNO3 embedded into porous glasses</t>
+  </si>
+  <si>
+    <t>Ferroelectrics, Letters Section</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/07315171.2014.908678</t>
+  </si>
+  <si>
+    <t>Shikov, A. A., Panova, G. K., Zemlyanov, M. G., Parshin, P. P., Kumzerov, Y. A., Naberezhnov, A. A., &amp; Shaitura, D. S.</t>
+  </si>
+  <si>
+    <t>Low-temperature vibrational properties of tin nanoparticles in porous glass</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S1063783411120237</t>
+  </si>
+  <si>
+    <t>Shikov, A. A., Zemlyanov, M. G., Parshin, P. P., Naberezhnov, A. A., &amp; Kumzerov, Y. A.</t>
+  </si>
+  <si>
+    <t>Superconducting properties of tin embedded in nanometer-sized pores of glass</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S106378341212030X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. E. Sovestnov, A. A. Naberezhnov, Yu. A. Kumzerov, A. A. Sysoeva, V. A. Ganzha, A. I. Egorov, N. M. Okuneva, V. I. Fedorov &amp; E. V. Fomin </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S1063783413040306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Study of palladium nanoparticles synthesized in alkali borosilicate glass pores by the X-ray line shift method. </t>
+  </si>
+  <si>
+    <t>Tarnavich, V., Korotkov, L., Karaeva, O., Naberezhnov, A., &amp; Rysiakiewicz-Pasek, E.</t>
+  </si>
+  <si>
+    <t>Effect of restricted geometry on structural phase transitions in KH 2PO4 and NH4H2PO4 crystals.</t>
+  </si>
+  <si>
+    <t>Optica Applicata</t>
+  </si>
+  <si>
+    <t>http://opticaapplicata.pwr.edu.pl/files/pdf/2010/no2/optappl_4002p305.pdf</t>
+  </si>
+  <si>
+    <t>Structure and dielectric response of (1–x)NaNO2 + xBaTiO3 composites at x = 0.05 and 0.1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S1063783417040023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O. A. Alekseeva, S. A. Borisov, E. Yu. Koroleva, A. A. Naberezhnov, E. V. Stukova, V. G. Simkin &amp; J.-U. Hoffmann </t>
+  </si>
+  <si>
+    <t>Baryshnikov, S., Stukova, E., &amp; Koroleva, E.</t>
+  </si>
+  <si>
+    <t>Dielectric properties of the ferroelectric composite (NaNO 2)0.9/(BaTiO3)0.1.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.compositesb.2014.05.005</t>
+  </si>
+  <si>
+    <t>Dencker, F., Wurz, M., Dubrovskiy, S., &amp; Koroleva, E.</t>
+  </si>
+  <si>
+    <t>An application report: Protective thin film layers for high temperature sensor technology</t>
+  </si>
+  <si>
+    <t>EIConRusNW 2016</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/EIConRusNW.2016.7448110</t>
+  </si>
+  <si>
+    <t>Structure and conductivity of nanostructured sodium nitrite</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.4028/www.scientific.net/SSP.115.221</t>
+  </si>
+  <si>
+    <t>Solid State Phenomena</t>
+  </si>
+  <si>
+    <t>I. Golosovsky, V. Dvornikov, T. Hansen, A. Fokin, E. Koroleva, L. Korotkov, A. Naberezhnov, M. Tovar</t>
+  </si>
+  <si>
+    <t>Koroleva, E., Burdin, D., Antropova, T., Porechnaya, N., Naberezhnov, A., Anfimova, I., &amp; Pschenko, O.</t>
+  </si>
+  <si>
+    <t>Dielectric properties of two-phase and porous ferriferous glasses</t>
+  </si>
+  <si>
+    <t>https://www.dbc.wroc.pl/Content/54514/PDF/optappl_4202p287.pdf</t>
+  </si>
+  <si>
+    <t>Koroleva, E., Naberezhnov, A., Nizhankovskii, V., Vanina, P., &amp; Sysoeva, A.</t>
+  </si>
+  <si>
+    <t>The effect of magnetic field on the ferroelectric phase transition in KH2PO4 nanoparticles embedded in magnetic porous glass</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S1063785015100235</t>
+  </si>
+  <si>
+    <t>Phase transitions in nanostructured potassium nitrate.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/01411594.2014.953954</t>
+  </si>
+  <si>
+    <t>Aleksandr Naberezhnova, Ekaterina Koroleva, Ewa Rysiakiewicz-Pasek , Aleksandr Fokin , Anna Sysoeva , Alexandra Franz , Maksim Seregina and Mihael Tovar</t>
+  </si>
+  <si>
+    <t>Popov, I. I., Nigmatullin, R. R., Koroleva, E. Y., &amp; Nabereznov, A. A.</t>
+  </si>
+  <si>
+    <t>The generalized jonscher's relationship for conductivity and its confirmation for porous structures</t>
+  </si>
+  <si>
+    <t>Journal of Non-Crystalline Solids</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jnoncrysol.2011.07.020</t>
+  </si>
+  <si>
+    <t>Phase transitions and macroscopic properties of NaNO3 embedded into porous glasses. Journal of Non-Crystalline Solids</t>
+  </si>
+  <si>
+    <t>E.Rysiakiewicz-PasekaA.NaberezhnovbM.SereginbE.KorolevabI.GlavatskyydM.TovardA.SysoevabE.Bermanc</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jnoncrysol.2011.03.016</t>
+  </si>
+  <si>
+    <t>Stukova, E. V., Baryshnikov, S. V., &amp; Koroleva, E. Y.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dielectric properties of ferroelectric composites (NaNO2)0.95/(PbTiO3)0.05. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/00150193.2016.1199219</t>
+  </si>
+  <si>
+    <t>Scirence Direct</t>
+  </si>
+  <si>
+    <t>Shift of phase transitions in a (NaNO2)1–x/(KNO2) x ferroelectric composite</t>
+  </si>
+  <si>
+    <t>Russian Physics Journal</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s11182-015-0485-x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longitudinal conductivity of LaF3/SrF2 multilayer heterostructures. </t>
+  </si>
+  <si>
+    <t>Vergentyev, T. Y., Koroleva, E. Y., Banshchikov, A. G., Sokolov, N. S., &amp; Chibisov, A. G.</t>
+  </si>
+  <si>
+    <t>Gromilov, S. A., Khranenko, S. P., Plyusnin, P. E., Vanina, P. Y., &amp; Kuratieva, N. V.</t>
+  </si>
+  <si>
+    <t>Longitudinal conductivity of thin films of La1-xSrx F3-x solid solutions on glass ceramics</t>
+  </si>
+  <si>
+    <t>[M(NH3)5Cl]WO4 (M = cr, rh): Synthesis, crystal structure, thermal properties.</t>
+  </si>
+  <si>
+    <t>Russian Journal of Electrochemistry</t>
+  </si>
+  <si>
+    <t>Journal of Structural Chemistry</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S102319351308020X</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S0022476613060115</t>
+  </si>
+  <si>
+    <t>The rhombohedral phase with incommensurate modulation in Na1/2Bi1/2TiO3</t>
+  </si>
+  <si>
+    <t>Balagurov, AM; Koroleva, EY; Naberezhnov, AA; Sakhnenko, VP; Savenko, BN; Ter-Oganessian, NV; Vakhrushev, SB</t>
+  </si>
+  <si>
+    <t>PHASE TRANSITIONS</t>
+  </si>
+  <si>
+    <t>Local and Average Structure of Relaxor Na-1/Bi-2(1)/2TiO3 from the Point of View of NMR</t>
+  </si>
+  <si>
+    <t>Aleksandrova, I. P.; Sukhovsky, A. A.; Ivanov, Yu. N.; Yablonskaya, Yu. E.; Vakhrushev, S. B.</t>
+  </si>
+  <si>
+    <t>FERROELECTRICS</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/00150190902844809</t>
+  </si>
+  <si>
+    <t>A new model of correlated disorder in relaxor ferroelectrics</t>
+  </si>
+  <si>
+    <t>Chernyshov, Dmitry; Bosak, Alexi; Vakhrushev, Sergey; Krisch, Michael</t>
+  </si>
+  <si>
+    <t>ACTA CRYSTALLOGRAPHICA A-FOUNDATION AND ADVANCES</t>
+  </si>
+  <si>
+    <t>https://journals.iucr.org/a/issues/2011/a1/00/a46790/a46790.pdf</t>
+  </si>
+  <si>
+    <t>HIGH-MAGNETOSTRICTION LAVES-PHASE ALLOY OF THE SAMARIUM-IRON SYSTEM: THE STRUCTURE AND PHASE TRANSFORMATIONS</t>
+  </si>
+  <si>
+    <t>Politova, G. A.; Karpenkov, A. Yu; Kaminskaya, T. P.; Ganin, M. A.; Kumar, Ravi; Filimonov, A., V</t>
+  </si>
+  <si>
+    <t>ST PETERSBURG POLYTECHNIC UNIVERSITY JOURNAL-PHYSICS AND MATHEMATICS</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.18721/JPM.12102</t>
+  </si>
+  <si>
+    <t>Spatial distribution of the electrical potential and ion concentration in the downstream area of atmospheric pressure remote plasma</t>
+  </si>
+  <si>
+    <t>Mishin, M. V.; Protopopova, V. S.; Uvarov, A. A.; Alexandrov, S. E.</t>
+  </si>
+  <si>
+    <t>AIP ADVANCES</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1063/1.4898785</t>
+  </si>
+  <si>
+    <t>High-temperature brazing of tungsten with steel by Cu-based ribbon brazing alloys for DEMO</t>
+  </si>
+  <si>
+    <t>Bachurina, Diana; Suchkov, Alexey; Filimonov, Alexey; Fedotov, Ivan; Savelyev, Maxim; Sevryukov, Oleg; Kalin, Boris</t>
+  </si>
+  <si>
+    <t>FUSION ENGINEERING AND DESIGN</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fusengdes.2019.02.072</t>
+  </si>
+  <si>
+    <t>Pre-transitional processes in lead zirconate doped by Ti studied by diffuse and inelastic X-ray scattering</t>
+  </si>
+  <si>
+    <t>Andronikova, Daria; Burkovsky, Roman; Bronwald, Yurii; Bosak, Alexei; Chemyshov, Dmitry; Leontiev, Igor; Leontiev, Nikolai; Filimonov, Alexey; Vakhrushe, Sergey</t>
+  </si>
+  <si>
+    <t>https://journals.iucr.org/a/issues/2018/a2/00/a57493/a57493.pdf</t>
+  </si>
+  <si>
+    <t>Dielectric properties of sodium nitrite confined in porous glass</t>
+  </si>
+  <si>
+    <t>Kinka, Martynas; Banys, Juras; Naberezhnov, Alexandr</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/00150190701196161</t>
+  </si>
+  <si>
+    <t>Dielectric properties of the P(VDF60/Tr-40) copolymer in the porous glass matrix</t>
+  </si>
+  <si>
+    <t>Karaeva, O. A.; Korotkov, L. N.; Naberezhnov, A. A.; Rysiakiewicz-Pasek, E.</t>
+  </si>
+  <si>
+    <t>PHYSICS OF THE SOLID STATE</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S1063783409070142</t>
+  </si>
+  <si>
+    <t>Effect of Restricted Geometry on the Structure and Phase Transitions in Potassium Nitrate Nanoparticles</t>
+  </si>
+  <si>
+    <t>Naberezhnov, A. A.; Vanina, P. Yu.; Sysoeva, A. A.; Cizman, A.; Rysiakiewicz-Pasek, E.; Hoser, A.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S1063783418030204</t>
+  </si>
+  <si>
+    <t>Vanina, P. Yu.; Naberezhnov, A. A.; Alekseeva, O. A.; Sysoeva, A. A.; Danilovich, D. P.; Nizhankovskii, V. I.</t>
+  </si>
+  <si>
+    <t>Phase transitions in nanostructured K1-x(NH4)((x))H2PO4 (x = 0 - 0.15) solid solutions</t>
+  </si>
+  <si>
+    <t>NANOSYSTEMS-PHYSICS CHEMISTRY MATHEMATICS</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17586/2220-8054-2017-8-4-535-539</t>
+  </si>
+  <si>
+    <t>Dielectric and Repolarization Properties of Nanocomposites Based on Porous Matrix with Sodium Nitrite</t>
+  </si>
+  <si>
+    <t>Rogazinskaya, O. V.; Sidorkin, A. S.; Popravko, N. G.; Milovidova, S. D.; Naberezhnov, A. A.; Grokhotova, E. V.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/00150193.2014.949146</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +1338,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -125,21 +1363,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -197,7 +1440,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -232,7 +1475,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -416,21 +1659,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="59.5703125" customWidth="1"/>
-    <col min="3" max="3" width="48.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="62.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="70.5703125" customWidth="1"/>
+    <col min="3" max="6" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -447,7 +1687,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>6</v>
@@ -458,19 +1698,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>197</v>
       </c>
       <c r="D2" s="1">
-        <v>41292</v>
+        <v>40567</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>3</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -478,19 +1718,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1">
-        <v>41263</v>
+        <v>39854</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -498,19 +1738,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="D4" s="1">
-        <v>41265</v>
+        <v>43523</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>13</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -518,28 +1758,2470 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" s="1">
+        <v>42699</v>
+      </c>
+      <c r="E5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="1">
+        <v>42289</v>
+      </c>
+      <c r="E6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D7" s="1">
+        <v>39641</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C8" t="s">
+        <v>380</v>
+      </c>
+      <c r="D8" s="1">
+        <v>41643</v>
+      </c>
+      <c r="E8" t="s">
+        <v>384</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="D9" s="1">
+        <v>38883</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1">
+        <v>39515</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>394</v>
+      </c>
+      <c r="C11" t="s">
+        <v>395</v>
+      </c>
+      <c r="D11" s="1">
+        <v>40546</v>
+      </c>
+      <c r="E11" t="s">
+        <v>396</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="1">
+        <v>42632</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="1">
+        <v>42020</v>
+      </c>
+      <c r="E13" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="1">
+        <v>39904</v>
+      </c>
+      <c r="E14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>348</v>
+      </c>
+      <c r="C15" t="s">
+        <v>347</v>
+      </c>
+      <c r="D15" s="1">
+        <v>42403</v>
+      </c>
+      <c r="E15" t="s">
+        <v>349</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>313</v>
+      </c>
+      <c r="C16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D16" s="1">
+        <v>40561</v>
+      </c>
+      <c r="E16" t="s">
+        <v>314</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>318</v>
+      </c>
+      <c r="C17" t="s">
+        <v>319</v>
+      </c>
+      <c r="D17" s="1">
+        <v>41014</v>
+      </c>
+      <c r="E17" t="s">
+        <v>314</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="1">
+        <v>39022</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C19" t="s">
+        <v>280</v>
+      </c>
+      <c r="D19" s="1">
+        <v>41280</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="1">
+        <v>38672</v>
+      </c>
+      <c r="E20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="1">
+        <v>39082</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="1">
+        <v>38516</v>
+      </c>
+      <c r="E22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="1">
+        <v>41819</v>
+      </c>
+      <c r="E23" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="1">
+        <v>42689</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="1">
+        <v>43015</v>
+      </c>
+      <c r="E25" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>181</v>
+      </c>
+      <c r="C26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D26" s="1">
+        <v>41311</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" t="s">
+        <v>192</v>
+      </c>
+      <c r="D27" s="1">
+        <v>42765</v>
+      </c>
+      <c r="E27" t="s">
+        <v>191</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="1">
+        <v>42343</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>305</v>
+      </c>
+      <c r="C29" t="s">
+        <v>304</v>
+      </c>
+      <c r="D29" s="1">
+        <v>40688</v>
+      </c>
+      <c r="E29" t="s">
+        <v>295</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>208</v>
+      </c>
+      <c r="C30" t="s">
+        <v>207</v>
+      </c>
+      <c r="D30" s="1">
+        <v>40337</v>
+      </c>
+      <c r="E30" t="s">
+        <v>174</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>288</v>
+      </c>
+      <c r="C31" t="s">
+        <v>287</v>
+      </c>
+      <c r="D31" s="1">
+        <v>41030</v>
+      </c>
+      <c r="E31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>33</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D32" s="1">
+        <v>41796</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C33" t="s">
+        <v>371</v>
+      </c>
+      <c r="D33" s="1">
+        <v>42660</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>218</v>
+      </c>
+      <c r="C34" t="s">
+        <v>217</v>
+      </c>
+      <c r="D34" s="1">
+        <v>43022</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>36</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="D35" s="1">
+        <v>39221</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>345</v>
+      </c>
+      <c r="C36" t="s">
+        <v>344</v>
+      </c>
+      <c r="D36" s="1">
+        <v>41944</v>
+      </c>
+      <c r="E36" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>38</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D37" s="1">
+        <v>39978</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>356</v>
+      </c>
+      <c r="C38" t="s">
+        <v>355</v>
+      </c>
+      <c r="D38" s="1">
+        <v>40966</v>
+      </c>
+      <c r="E38" t="s">
+        <v>339</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="1">
+        <v>42522</v>
+      </c>
+      <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="1">
+        <v>38468</v>
+      </c>
+      <c r="E40" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="1">
+        <v>40920</v>
+      </c>
+      <c r="E41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="1">
+        <v>38664</v>
+      </c>
+      <c r="E42" t="s">
+        <v>86</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" s="1">
+        <v>42624</v>
+      </c>
+      <c r="E43" t="s">
+        <v>145</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>294</v>
+      </c>
+      <c r="C44" t="s">
+        <v>293</v>
+      </c>
+      <c r="D44" s="1">
+        <v>42356</v>
+      </c>
+      <c r="E44" t="s">
+        <v>295</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>338</v>
+      </c>
+      <c r="C45" t="s">
+        <v>337</v>
+      </c>
+      <c r="D45" s="1">
+        <v>40524</v>
+      </c>
+      <c r="E45" t="s">
+        <v>339</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>47</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="D46" s="6">
+        <v>39966</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>291</v>
+      </c>
+      <c r="C47" t="s">
+        <v>290</v>
+      </c>
+      <c r="D47" s="1">
+        <v>42711</v>
+      </c>
+      <c r="E47" t="s">
+        <v>292</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>203</v>
+      </c>
+      <c r="C48" t="s">
+        <v>205</v>
+      </c>
+      <c r="D48" s="1">
+        <v>42901</v>
+      </c>
+      <c r="E48" t="s">
+        <v>204</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="1">
+        <v>41263</v>
+      </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>322</v>
+      </c>
+      <c r="C50" t="s">
+        <v>321</v>
+      </c>
+      <c r="D50" s="1">
+        <v>40877</v>
+      </c>
+      <c r="E50" t="s">
+        <v>299</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="1">
+        <v>41253</v>
+      </c>
+      <c r="E51" t="s">
+        <v>30</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>53</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D52" s="1">
+        <v>43501</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>54</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D53" s="1">
+        <v>43729</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" s="1">
+        <v>40502</v>
+      </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>165</v>
+      </c>
+      <c r="C55" t="s">
+        <v>164</v>
+      </c>
+      <c r="D55" s="1">
+        <v>40198</v>
+      </c>
+      <c r="E55" t="s">
+        <v>166</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>302</v>
+      </c>
+      <c r="C56" t="s">
+        <v>301</v>
+      </c>
+      <c r="D56" s="1">
+        <v>42787</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" s="1">
+        <v>40575</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="1">
         <v>43655</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>19</v>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>200</v>
+      </c>
+      <c r="C59" t="s">
+        <v>201</v>
+      </c>
+      <c r="D59" s="1">
+        <v>41920</v>
+      </c>
+      <c r="E59" t="s">
+        <v>52</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>183</v>
+      </c>
+      <c r="C60" t="s">
+        <v>184</v>
+      </c>
+      <c r="D60" s="1">
+        <v>42219</v>
+      </c>
+      <c r="E60" t="s">
+        <v>69</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>390</v>
+      </c>
+      <c r="C61" t="s">
+        <v>391</v>
+      </c>
+      <c r="D61" s="1">
+        <v>39983</v>
+      </c>
+      <c r="E61" t="s">
+        <v>392</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" t="s">
+        <v>46</v>
+      </c>
+      <c r="D62" s="1">
+        <v>39542</v>
+      </c>
+      <c r="E62" t="s">
+        <v>48</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>378</v>
+      </c>
+      <c r="C63" t="s">
+        <v>276</v>
+      </c>
+      <c r="D63" s="1">
+        <v>42699</v>
+      </c>
+      <c r="E63" t="s">
+        <v>279</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>381</v>
+      </c>
+      <c r="C64" t="s">
+        <v>379</v>
+      </c>
+      <c r="D64" s="1">
+        <v>41500</v>
+      </c>
+      <c r="E64" t="s">
+        <v>383</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>148</v>
+      </c>
+      <c r="C65" t="s">
+        <v>147</v>
+      </c>
+      <c r="D65" s="1">
+        <v>41713</v>
+      </c>
+      <c r="E65" t="s">
+        <v>149</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>329</v>
+      </c>
+      <c r="C66" t="s">
+        <v>328</v>
+      </c>
+      <c r="D66" s="1">
+        <v>40885</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" t="s">
+        <v>50</v>
+      </c>
+      <c r="D67" s="1">
+        <v>40231</v>
+      </c>
+      <c r="E67" t="s">
+        <v>52</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>253</v>
+      </c>
+      <c r="C68" t="s">
+        <v>255</v>
+      </c>
+      <c r="D68" s="1">
+        <v>43480</v>
+      </c>
+      <c r="E68" t="s">
+        <v>254</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>251</v>
+      </c>
+      <c r="C69" t="s">
+        <v>250</v>
+      </c>
+      <c r="D69" s="1">
+        <v>43992</v>
+      </c>
+      <c r="E69" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>221</v>
+      </c>
+      <c r="C70" t="s">
+        <v>220</v>
+      </c>
+      <c r="D70" s="1">
+        <v>41994</v>
+      </c>
+      <c r="E70" t="s">
+        <v>222</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>269</v>
+      </c>
+      <c r="C71" t="s">
+        <v>268</v>
+      </c>
+      <c r="D71" s="1">
+        <v>43291</v>
+      </c>
+      <c r="E71" t="s">
+        <v>270</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s">
+        <v>210</v>
+      </c>
+      <c r="C72" t="s">
+        <v>213</v>
+      </c>
+      <c r="D72" s="1">
+        <v>43353</v>
+      </c>
+      <c r="E72" t="s">
+        <v>211</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>74</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C73" t="s">
+        <v>235</v>
+      </c>
+      <c r="D73" s="1">
+        <v>41856</v>
+      </c>
+      <c r="E73" t="s">
+        <v>133</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>123</v>
+      </c>
+      <c r="C74" t="s">
+        <v>122</v>
+      </c>
+      <c r="D74" s="1">
+        <v>43528</v>
+      </c>
+      <c r="E74" t="s">
+        <v>69</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>76</v>
+      </c>
+      <c r="B75" t="s">
+        <v>325</v>
+      </c>
+      <c r="C75" t="s">
+        <v>324</v>
+      </c>
+      <c r="D75" s="1">
+        <v>41786</v>
+      </c>
+      <c r="E75" t="s">
+        <v>326</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C76" t="s">
+        <v>71</v>
+      </c>
+      <c r="D76" s="1">
+        <v>42012</v>
+      </c>
+      <c r="E76" t="s">
+        <v>69</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s">
+        <v>61</v>
+      </c>
+      <c r="C77" t="s">
+        <v>64</v>
+      </c>
+      <c r="D77" s="1">
+        <v>40994</v>
+      </c>
+      <c r="E77" t="s">
+        <v>62</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>79</v>
+      </c>
+      <c r="B78" t="s">
+        <v>298</v>
+      </c>
+      <c r="C78" t="s">
+        <v>297</v>
+      </c>
+      <c r="D78" s="1">
+        <v>43194</v>
+      </c>
+      <c r="E78" t="s">
+        <v>299</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>80</v>
+      </c>
+      <c r="B79" t="s">
+        <v>368</v>
+      </c>
+      <c r="C79" t="s">
+        <v>369</v>
+      </c>
+      <c r="D79" s="1">
+        <v>40725</v>
+      </c>
+      <c r="E79" t="s">
+        <v>374</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>81</v>
+      </c>
+      <c r="B80" t="s">
+        <v>214</v>
+      </c>
+      <c r="C80" t="s">
+        <v>215</v>
+      </c>
+      <c r="D80" s="1">
+        <v>43741</v>
+      </c>
+      <c r="E80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>82</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="D81" s="1">
+        <v>42948</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>83</v>
+      </c>
+      <c r="B82" t="s">
+        <v>361</v>
+      </c>
+      <c r="C82" t="s">
+        <v>363</v>
+      </c>
+      <c r="D82" s="1">
+        <v>41927</v>
+      </c>
+      <c r="E82" t="s">
+        <v>23</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>84</v>
+      </c>
+      <c r="B83" t="s">
+        <v>258</v>
+      </c>
+      <c r="C83" t="s">
+        <v>257</v>
+      </c>
+      <c r="D83" s="1">
+        <v>37909</v>
+      </c>
+      <c r="E83" t="s">
+        <v>259</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>244</v>
+      </c>
+      <c r="C84" t="s">
+        <v>243</v>
+      </c>
+      <c r="D84" s="1">
+        <v>38842</v>
+      </c>
+      <c r="E84" t="s">
+        <v>245</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>86</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="D85" s="1">
+        <v>43314</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>87</v>
+      </c>
+      <c r="B86" t="s">
+        <v>239</v>
+      </c>
+      <c r="C86" t="s">
+        <v>238</v>
+      </c>
+      <c r="D86" s="1">
+        <v>42066</v>
+      </c>
+      <c r="E86" t="s">
+        <v>240</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>88</v>
+      </c>
+      <c r="B87" t="s">
+        <v>58</v>
+      </c>
+      <c r="C87" t="s">
+        <v>59</v>
+      </c>
+      <c r="D87" s="1">
+        <v>39973</v>
+      </c>
+      <c r="E87" t="s">
+        <v>52</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="1">
+        <v>41292</v>
+      </c>
+      <c r="E88" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>308</v>
+      </c>
+      <c r="C89" t="s">
+        <v>307</v>
+      </c>
+      <c r="D89" s="1">
+        <v>40130</v>
+      </c>
+      <c r="E89" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>92</v>
+      </c>
+      <c r="B90" t="s">
+        <v>132</v>
+      </c>
+      <c r="C90" t="s">
+        <v>135</v>
+      </c>
+      <c r="D90" s="1">
+        <v>42199</v>
+      </c>
+      <c r="E90" t="s">
+        <v>133</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>375</v>
+      </c>
+      <c r="C91" t="s">
+        <v>371</v>
+      </c>
+      <c r="D91" s="1">
+        <v>42161</v>
+      </c>
+      <c r="E91" t="s">
+        <v>376</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>225</v>
+      </c>
+      <c r="C92" t="s">
+        <v>224</v>
+      </c>
+      <c r="D92" s="1">
+        <v>42401</v>
+      </c>
+      <c r="E92" t="s">
+        <v>226</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>95</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="D93" s="1">
+        <v>41940</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>247</v>
+      </c>
+      <c r="C94" t="s">
+        <v>248</v>
+      </c>
+      <c r="D94" s="1">
+        <v>42353</v>
+      </c>
+      <c r="E94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>194</v>
+      </c>
+      <c r="C95" t="s">
+        <v>195</v>
+      </c>
+      <c r="D95" s="1">
+        <v>41150</v>
+      </c>
+      <c r="E95" t="s">
+        <v>48</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>98</v>
+      </c>
+      <c r="B96" t="s">
+        <v>125</v>
+      </c>
+      <c r="C96" t="s">
+        <v>126</v>
+      </c>
+      <c r="D96" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E96" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>351</v>
+      </c>
+      <c r="C97" t="s">
+        <v>354</v>
+      </c>
+      <c r="D97" s="1">
+        <v>38944</v>
+      </c>
+      <c r="E97" t="s">
+        <v>353</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>100</v>
+      </c>
+      <c r="B98" t="s">
+        <v>341</v>
+      </c>
+      <c r="C98" t="s">
+        <v>343</v>
+      </c>
+      <c r="D98" s="1">
+        <v>42848</v>
+      </c>
+      <c r="E98" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>101</v>
+      </c>
+      <c r="B99" t="s">
+        <v>112</v>
+      </c>
+      <c r="C99" t="s">
+        <v>114</v>
+      </c>
+      <c r="D99" s="1">
+        <v>39670</v>
+      </c>
+      <c r="E99" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>102</v>
+      </c>
+      <c r="B100" t="s">
+        <v>161</v>
+      </c>
+      <c r="C100" t="s">
+        <v>163</v>
+      </c>
+      <c r="D100" s="1">
+        <v>41187</v>
+      </c>
+      <c r="E100" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>103</v>
+      </c>
+      <c r="B101" t="s">
+        <v>336</v>
+      </c>
+      <c r="C101" t="s">
+        <v>334</v>
+      </c>
+      <c r="D101" s="1">
+        <v>41381</v>
+      </c>
+      <c r="E101" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>104</v>
+      </c>
+      <c r="B102" t="s">
+        <v>119</v>
+      </c>
+      <c r="C102" t="s">
+        <v>118</v>
+      </c>
+      <c r="D102" s="1">
+        <v>40902</v>
+      </c>
+      <c r="E102" t="s">
+        <v>120</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>105</v>
+      </c>
+      <c r="B103" t="s">
+        <v>332</v>
+      </c>
+      <c r="C103" t="s">
+        <v>331</v>
+      </c>
+      <c r="D103" s="1">
+        <v>41248</v>
+      </c>
+      <c r="E103" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>106</v>
+      </c>
+      <c r="B104" t="s">
+        <v>140</v>
+      </c>
+      <c r="C104" t="s">
+        <v>139</v>
+      </c>
+      <c r="D104" s="1">
+        <v>42694</v>
+      </c>
+      <c r="E104" t="s">
+        <v>141</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>107</v>
+      </c>
+      <c r="B105" t="s">
+        <v>273</v>
+      </c>
+      <c r="C105" t="s">
+        <v>272</v>
+      </c>
+      <c r="D105" s="1">
+        <v>42545</v>
+      </c>
+      <c r="E105" t="s">
+        <v>274</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>108</v>
+      </c>
+      <c r="B106" t="s">
+        <v>130</v>
+      </c>
+      <c r="C106" t="s">
+        <v>128</v>
+      </c>
+      <c r="D106" s="1">
+        <v>42109</v>
+      </c>
+      <c r="E106" t="s">
+        <v>131</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>109</v>
+      </c>
+      <c r="B107" t="s">
+        <v>26</v>
+      </c>
+      <c r="C107" t="s">
+        <v>25</v>
+      </c>
+      <c r="D107" s="1">
+        <v>40299</v>
+      </c>
+      <c r="E107" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>110</v>
+      </c>
+      <c r="B108" t="s">
+        <v>98</v>
+      </c>
+      <c r="C108" t="s">
+        <v>242</v>
+      </c>
+      <c r="D108" s="1">
+        <v>43960</v>
+      </c>
+      <c r="E108" t="s">
+        <v>99</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>112</v>
+      </c>
+      <c r="B109" t="s">
+        <v>284</v>
+      </c>
+      <c r="C109" t="s">
+        <v>283</v>
+      </c>
+      <c r="D109" s="1">
+        <v>40561</v>
+      </c>
+      <c r="E109" t="s">
+        <v>285</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>113</v>
+      </c>
+      <c r="B110" t="s">
+        <v>359</v>
+      </c>
+      <c r="C110" t="s">
+        <v>358</v>
+      </c>
+      <c r="D110" s="1">
+        <v>42278</v>
+      </c>
+      <c r="E110" t="s">
+        <v>96</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>114</v>
+      </c>
+      <c r="B111" t="s">
+        <v>365</v>
+      </c>
+      <c r="C111" t="s">
+        <v>364</v>
+      </c>
+      <c r="D111" s="1">
+        <v>40909</v>
+      </c>
+      <c r="E111" t="s">
+        <v>366</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>115</v>
+      </c>
+      <c r="B112" t="s">
+        <v>231</v>
+      </c>
+      <c r="C112" t="s">
+        <v>234</v>
+      </c>
+      <c r="D112" s="1">
+        <v>43262</v>
+      </c>
+      <c r="E112" t="s">
+        <v>232</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>116</v>
+      </c>
+      <c r="B113" t="s">
+        <v>77</v>
+      </c>
+      <c r="C113" t="s">
+        <v>76</v>
+      </c>
+      <c r="D113" s="1">
+        <v>40058</v>
+      </c>
+      <c r="E113" t="s">
+        <v>78</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>117</v>
+      </c>
+      <c r="B114" t="s">
+        <v>261</v>
+      </c>
+      <c r="C114" t="s">
+        <v>263</v>
+      </c>
+      <c r="D114" s="1">
+        <v>41484</v>
+      </c>
+      <c r="E114" t="s">
+        <v>262</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>119</v>
+      </c>
+      <c r="B115" t="s">
+        <v>387</v>
+      </c>
+      <c r="C115" t="s">
+        <v>388</v>
+      </c>
+      <c r="D115" s="1">
+        <v>38747</v>
+      </c>
+      <c r="E115" t="s">
+        <v>389</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>120</v>
+      </c>
+      <c r="B116" t="s">
+        <v>173</v>
+      </c>
+      <c r="C116" t="s">
+        <v>172</v>
+      </c>
+      <c r="D116" s="1">
+        <v>40461</v>
+      </c>
+      <c r="E116" t="s">
+        <v>174</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>121</v>
+      </c>
+      <c r="B117" t="s">
+        <v>265</v>
+      </c>
+      <c r="C117" t="s">
+        <v>264</v>
+      </c>
+      <c r="D117" s="1">
+        <v>43243</v>
+      </c>
+      <c r="E117" t="s">
+        <v>12</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>122</v>
+      </c>
+      <c r="B118" t="s">
+        <v>88</v>
+      </c>
+      <c r="C118" t="s">
+        <v>84</v>
+      </c>
+      <c r="D118" s="1">
+        <v>38510</v>
+      </c>
+      <c r="E118" t="s">
+        <v>86</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>123</v>
+      </c>
+      <c r="B119" t="s">
+        <v>186</v>
+      </c>
+      <c r="C119" t="s">
+        <v>187</v>
+      </c>
+      <c r="D119" s="1">
+        <v>43675</v>
+      </c>
+      <c r="E119" t="s">
+        <v>188</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>124</v>
+      </c>
+      <c r="B120" t="s">
+        <v>110</v>
+      </c>
+      <c r="C120" t="s">
+        <v>109</v>
+      </c>
+      <c r="D120" s="1">
+        <v>40303</v>
+      </c>
+      <c r="E120" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>125</v>
+      </c>
+      <c r="B121" t="s">
+        <v>95</v>
+      </c>
+      <c r="C121" t="s">
+        <v>94</v>
+      </c>
+      <c r="D121" s="1">
+        <v>42344</v>
+      </c>
+      <c r="E121" t="s">
+        <v>96</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:F197">
+    <sortState ref="B2:F197">
+      <sortCondition ref="B1:B197"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{DE6F0E51-FBD8-4E6F-9A43-5F24C2353D34}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{1642BF3D-AAC8-4B55-9DDA-E12760BD2602}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{336373F3-F996-4421-9C53-534496BF8B61}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{D4067E9C-A3DF-421E-A192-7FFC326F3B48}"/>
+    <hyperlink ref="F88" r:id="rId1"/>
+    <hyperlink ref="F49" r:id="rId2"/>
+    <hyperlink ref="F58" r:id="rId3"/>
+    <hyperlink ref="F9" r:id="rId4"/>
+    <hyperlink ref="F10" r:id="rId5"/>
+    <hyperlink ref="F107" r:id="rId6"/>
+    <hyperlink ref="F51" r:id="rId7" tooltip="Open URL link"/>
+    <hyperlink ref="F41" r:id="rId8" tooltip="Open URL link"/>
+    <hyperlink ref="F21" r:id="rId9" tooltip="Persistent link using digital object identifier"/>
+    <hyperlink ref="F24" r:id="rId10"/>
+    <hyperlink ref="F54" r:id="rId11"/>
+    <hyperlink ref="F62" r:id="rId12"/>
+    <hyperlink ref="F67" r:id="rId13"/>
+    <hyperlink ref="F3" r:id="rId14"/>
+    <hyperlink ref="F87" r:id="rId15"/>
+    <hyperlink ref="F77" r:id="rId16"/>
+    <hyperlink ref="F18" r:id="rId17"/>
+    <hyperlink ref="F76" r:id="rId18"/>
+    <hyperlink ref="F39" r:id="rId19" tooltip="Persistent link using digital object identifier"/>
+    <hyperlink ref="F113" r:id="rId20"/>
+    <hyperlink ref="F22" r:id="rId21"/>
+    <hyperlink ref="F42" r:id="rId22"/>
+    <hyperlink ref="F118" r:id="rId23"/>
+    <hyperlink ref="F14" r:id="rId24" tooltip="Persistent link using digital object identifier"/>
+    <hyperlink ref="F121" r:id="rId25"/>
+    <hyperlink ref="F20" r:id="rId26"/>
+    <hyperlink ref="F40" r:id="rId27"/>
+    <hyperlink ref="F120" r:id="rId28"/>
+    <hyperlink ref="F99" r:id="rId29"/>
+    <hyperlink ref="F57" r:id="rId30"/>
+    <hyperlink ref="F102" r:id="rId31"/>
+    <hyperlink ref="F74" r:id="rId32"/>
+    <hyperlink ref="F96" r:id="rId33"/>
+    <hyperlink ref="F106" r:id="rId34"/>
+    <hyperlink ref="F90" r:id="rId35"/>
+    <hyperlink ref="F12" r:id="rId36"/>
+    <hyperlink ref="F104" r:id="rId37"/>
+    <hyperlink ref="F43" r:id="rId38"/>
+    <hyperlink ref="F65" r:id="rId39" display="https://doi.org/10.1063/1.4869147"/>
+    <hyperlink ref="F6" r:id="rId40"/>
+    <hyperlink ref="F13" r:id="rId41"/>
+    <hyperlink ref="F28" r:id="rId42"/>
+    <hyperlink ref="F100" r:id="rId43"/>
+    <hyperlink ref="F55" r:id="rId44"/>
+    <hyperlink ref="F25" r:id="rId45"/>
+    <hyperlink ref="F116" r:id="rId46"/>
+    <hyperlink ref="F23" r:id="rId47"/>
+    <hyperlink ref="F26" r:id="rId48"/>
+    <hyperlink ref="F60" r:id="rId49"/>
+    <hyperlink ref="F119" r:id="rId50"/>
+    <hyperlink ref="F27" r:id="rId51"/>
+    <hyperlink ref="F95" r:id="rId52"/>
+    <hyperlink ref="F2" r:id="rId53"/>
+    <hyperlink ref="F59" r:id="rId54"/>
+    <hyperlink ref="F48" r:id="rId55" tooltip="Persistent link using digital object identifier"/>
+    <hyperlink ref="F30" r:id="rId56"/>
+    <hyperlink ref="F72" r:id="rId57"/>
+    <hyperlink ref="F80" r:id="rId58"/>
+    <hyperlink ref="F34" r:id="rId59"/>
+    <hyperlink ref="F70" r:id="rId60" tooltip="Persistent link using digital object identifier"/>
+    <hyperlink ref="F92" r:id="rId61" tooltip="Persistent link using digital object identifier"/>
+    <hyperlink ref="F4" r:id="rId62"/>
+    <hyperlink ref="F112" r:id="rId63"/>
+    <hyperlink ref="F73" r:id="rId64"/>
+    <hyperlink ref="F86" r:id="rId65"/>
+    <hyperlink ref="F108" r:id="rId66" tooltip="Persistent link using digital object identifier"/>
+    <hyperlink ref="F84" r:id="rId67" tooltip="Persistent link using digital object identifier"/>
+    <hyperlink ref="F94" r:id="rId68"/>
+    <hyperlink ref="F69" r:id="rId69"/>
+    <hyperlink ref="F68" r:id="rId70" tooltip="Persistent link using digital object identifier"/>
+    <hyperlink ref="F83" r:id="rId71"/>
+    <hyperlink ref="F117" r:id="rId72"/>
+    <hyperlink ref="F114" r:id="rId73"/>
+    <hyperlink ref="F71" r:id="rId74"/>
+    <hyperlink ref="F105" r:id="rId75"/>
+    <hyperlink ref="F5" r:id="rId76"/>
+    <hyperlink ref="F19" r:id="rId77"/>
+    <hyperlink ref="F109" r:id="rId78"/>
+    <hyperlink ref="F31" r:id="rId79" tooltip="Persistent link using digital object identifier"/>
+    <hyperlink ref="F47" r:id="rId80"/>
+    <hyperlink ref="F44" r:id="rId81"/>
+    <hyperlink ref="F78" r:id="rId82"/>
+    <hyperlink ref="F56" r:id="rId83"/>
+    <hyperlink ref="F29" r:id="rId84"/>
+    <hyperlink ref="F89" r:id="rId85"/>
+    <hyperlink ref="F7" r:id="rId86"/>
+    <hyperlink ref="F16" r:id="rId87"/>
+    <hyperlink ref="F17" r:id="rId88"/>
+    <hyperlink ref="F50" r:id="rId89"/>
+    <hyperlink ref="F75" r:id="rId90"/>
+    <hyperlink ref="F66" r:id="rId91"/>
+    <hyperlink ref="F103" r:id="rId92"/>
+    <hyperlink ref="F101" r:id="rId93"/>
+    <hyperlink ref="F45" r:id="rId94"/>
+    <hyperlink ref="F98" r:id="rId95"/>
+    <hyperlink ref="F36" r:id="rId96" tooltip="Persistent link using digital object identifier"/>
+    <hyperlink ref="F15" r:id="rId97"/>
+    <hyperlink ref="F97" r:id="rId98"/>
+    <hyperlink ref="F38" r:id="rId99"/>
+    <hyperlink ref="F110" r:id="rId100"/>
+    <hyperlink ref="F82" r:id="rId101"/>
+    <hyperlink ref="F111" r:id="rId102" tooltip="Persistent link using digital object identifier"/>
+    <hyperlink ref="F79" r:id="rId103"/>
+    <hyperlink ref="F33" r:id="rId104"/>
+    <hyperlink ref="F91" r:id="rId105"/>
+    <hyperlink ref="F63" r:id="rId106"/>
+    <hyperlink ref="F64" r:id="rId107"/>
+    <hyperlink ref="F8" r:id="rId108"/>
+    <hyperlink ref="F115" r:id="rId109"/>
+    <hyperlink ref="F61" r:id="rId110"/>
+    <hyperlink ref="F11" r:id="rId111"/>
+    <hyperlink ref="F52" r:id="rId112"/>
+    <hyperlink ref="F93" r:id="rId113"/>
+    <hyperlink ref="F53" r:id="rId114" tooltip="Persistent link using digital object identifier"/>
+    <hyperlink ref="F85" r:id="rId115"/>
+    <hyperlink ref="F35" r:id="rId116"/>
+    <hyperlink ref="F37" r:id="rId117"/>
+    <hyperlink ref="F46" r:id="rId118"/>
+    <hyperlink ref="F81" r:id="rId119"/>
+    <hyperlink ref="F32" r:id="rId120"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId121"/>
 </worksheet>
 </file>
--- a/publicationsGenerator/table.xlsx
+++ b/publicationsGenerator/table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\safe\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0259d400e1551526/NCM_lab/For_NCM_site/publicationsGenerator/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{E3FB680A-0A1D-4C7C-A26F-06BF43F376E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="426">
   <si>
     <t>N</t>
   </si>
@@ -1166,25 +1167,13 @@
     <t xml:space="preserve">Longitudinal conductivity of LaF3/SrF2 multilayer heterostructures. </t>
   </si>
   <si>
-    <t>Vergentyev, T. Y., Koroleva, E. Y., Banshchikov, A. G., Sokolov, N. S., &amp; Chibisov, A. G.</t>
-  </si>
-  <si>
     <t>Gromilov, S. A., Khranenko, S. P., Plyusnin, P. E., Vanina, P. Y., &amp; Kuratieva, N. V.</t>
   </si>
   <si>
-    <t>Longitudinal conductivity of thin films of La1-xSrx F3-x solid solutions on glass ceramics</t>
-  </si>
-  <si>
     <t>[M(NH3)5Cl]WO4 (M = cr, rh): Synthesis, crystal structure, thermal properties.</t>
   </si>
   <si>
-    <t>Russian Journal of Electrochemistry</t>
-  </si>
-  <si>
     <t>Journal of Structural Chemistry</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1134/S102319351308020X</t>
   </si>
   <si>
     <t>https://doi.org/10.1134/S0022476613060115</t>
@@ -1322,7 +1311,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1382,7 +1371,7 @@
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1659,11 +1648,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1818,19 +1807,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D8" s="1">
         <v>41643</v>
       </c>
       <c r="E8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1878,19 +1867,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C11" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D11" s="1">
         <v>40546</v>
       </c>
       <c r="E11" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2298,19 +2287,19 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D32" s="1">
         <v>41796</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2358,19 +2347,19 @@
         <v>36</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D35" s="1">
         <v>39221</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2398,19 +2387,19 @@
         <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D37" s="1">
         <v>39978</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2578,19 +2567,19 @@
         <v>47</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D46" s="6">
         <v>39966</v>
       </c>
       <c r="E46" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2698,19 +2687,19 @@
         <v>53</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D52" s="1">
         <v>43501</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2718,19 +2707,19 @@
         <v>54</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D53" s="1">
         <v>43729</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2878,19 +2867,19 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C61" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D61" s="1">
         <v>39983</v>
       </c>
       <c r="E61" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2934,24 +2923,8 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>65</v>
-      </c>
-      <c r="B64" t="s">
-        <v>381</v>
-      </c>
-      <c r="C64" t="s">
-        <v>379</v>
-      </c>
-      <c r="D64" s="1">
-        <v>41500</v>
-      </c>
-      <c r="E64" t="s">
-        <v>383</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>385</v>
-      </c>
+      <c r="D64" s="1"/>
+      <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
@@ -3278,19 +3251,19 @@
         <v>82</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D81" s="1">
         <v>42948</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3358,19 +3331,19 @@
         <v>86</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D85" s="1">
         <v>43314</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3518,19 +3491,19 @@
         <v>95</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D93" s="1">
         <v>41940</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3958,16 +3931,16 @@
         <v>119</v>
       </c>
       <c r="B115" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C115" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D115" s="1">
         <v>38747</v>
       </c>
       <c r="E115" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>24</v>
@@ -4094,134 +4067,133 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:F197">
-    <sortState ref="B2:F197">
+  <autoFilter ref="B1:F197" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F197">
       <sortCondition ref="B1:B197"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="F88" r:id="rId1"/>
-    <hyperlink ref="F49" r:id="rId2"/>
-    <hyperlink ref="F58" r:id="rId3"/>
-    <hyperlink ref="F9" r:id="rId4"/>
-    <hyperlink ref="F10" r:id="rId5"/>
-    <hyperlink ref="F107" r:id="rId6"/>
-    <hyperlink ref="F51" r:id="rId7" tooltip="Open URL link"/>
-    <hyperlink ref="F41" r:id="rId8" tooltip="Open URL link"/>
-    <hyperlink ref="F21" r:id="rId9" tooltip="Persistent link using digital object identifier"/>
-    <hyperlink ref="F24" r:id="rId10"/>
-    <hyperlink ref="F54" r:id="rId11"/>
-    <hyperlink ref="F62" r:id="rId12"/>
-    <hyperlink ref="F67" r:id="rId13"/>
-    <hyperlink ref="F3" r:id="rId14"/>
-    <hyperlink ref="F87" r:id="rId15"/>
-    <hyperlink ref="F77" r:id="rId16"/>
-    <hyperlink ref="F18" r:id="rId17"/>
-    <hyperlink ref="F76" r:id="rId18"/>
-    <hyperlink ref="F39" r:id="rId19" tooltip="Persistent link using digital object identifier"/>
-    <hyperlink ref="F113" r:id="rId20"/>
-    <hyperlink ref="F22" r:id="rId21"/>
-    <hyperlink ref="F42" r:id="rId22"/>
-    <hyperlink ref="F118" r:id="rId23"/>
-    <hyperlink ref="F14" r:id="rId24" tooltip="Persistent link using digital object identifier"/>
-    <hyperlink ref="F121" r:id="rId25"/>
-    <hyperlink ref="F20" r:id="rId26"/>
-    <hyperlink ref="F40" r:id="rId27"/>
-    <hyperlink ref="F120" r:id="rId28"/>
-    <hyperlink ref="F99" r:id="rId29"/>
-    <hyperlink ref="F57" r:id="rId30"/>
-    <hyperlink ref="F102" r:id="rId31"/>
-    <hyperlink ref="F74" r:id="rId32"/>
-    <hyperlink ref="F96" r:id="rId33"/>
-    <hyperlink ref="F106" r:id="rId34"/>
-    <hyperlink ref="F90" r:id="rId35"/>
-    <hyperlink ref="F12" r:id="rId36"/>
-    <hyperlink ref="F104" r:id="rId37"/>
-    <hyperlink ref="F43" r:id="rId38"/>
-    <hyperlink ref="F65" r:id="rId39" display="https://doi.org/10.1063/1.4869147"/>
-    <hyperlink ref="F6" r:id="rId40"/>
-    <hyperlink ref="F13" r:id="rId41"/>
-    <hyperlink ref="F28" r:id="rId42"/>
-    <hyperlink ref="F100" r:id="rId43"/>
-    <hyperlink ref="F55" r:id="rId44"/>
-    <hyperlink ref="F25" r:id="rId45"/>
-    <hyperlink ref="F116" r:id="rId46"/>
-    <hyperlink ref="F23" r:id="rId47"/>
-    <hyperlink ref="F26" r:id="rId48"/>
-    <hyperlink ref="F60" r:id="rId49"/>
-    <hyperlink ref="F119" r:id="rId50"/>
-    <hyperlink ref="F27" r:id="rId51"/>
-    <hyperlink ref="F95" r:id="rId52"/>
-    <hyperlink ref="F2" r:id="rId53"/>
-    <hyperlink ref="F59" r:id="rId54"/>
-    <hyperlink ref="F48" r:id="rId55" tooltip="Persistent link using digital object identifier"/>
-    <hyperlink ref="F30" r:id="rId56"/>
-    <hyperlink ref="F72" r:id="rId57"/>
-    <hyperlink ref="F80" r:id="rId58"/>
-    <hyperlink ref="F34" r:id="rId59"/>
-    <hyperlink ref="F70" r:id="rId60" tooltip="Persistent link using digital object identifier"/>
-    <hyperlink ref="F92" r:id="rId61" tooltip="Persistent link using digital object identifier"/>
-    <hyperlink ref="F4" r:id="rId62"/>
-    <hyperlink ref="F112" r:id="rId63"/>
-    <hyperlink ref="F73" r:id="rId64"/>
-    <hyperlink ref="F86" r:id="rId65"/>
-    <hyperlink ref="F108" r:id="rId66" tooltip="Persistent link using digital object identifier"/>
-    <hyperlink ref="F84" r:id="rId67" tooltip="Persistent link using digital object identifier"/>
-    <hyperlink ref="F94" r:id="rId68"/>
-    <hyperlink ref="F69" r:id="rId69"/>
-    <hyperlink ref="F68" r:id="rId70" tooltip="Persistent link using digital object identifier"/>
-    <hyperlink ref="F83" r:id="rId71"/>
-    <hyperlink ref="F117" r:id="rId72"/>
-    <hyperlink ref="F114" r:id="rId73"/>
-    <hyperlink ref="F71" r:id="rId74"/>
-    <hyperlink ref="F105" r:id="rId75"/>
-    <hyperlink ref="F5" r:id="rId76"/>
-    <hyperlink ref="F19" r:id="rId77"/>
-    <hyperlink ref="F109" r:id="rId78"/>
-    <hyperlink ref="F31" r:id="rId79" tooltip="Persistent link using digital object identifier"/>
-    <hyperlink ref="F47" r:id="rId80"/>
-    <hyperlink ref="F44" r:id="rId81"/>
-    <hyperlink ref="F78" r:id="rId82"/>
-    <hyperlink ref="F56" r:id="rId83"/>
-    <hyperlink ref="F29" r:id="rId84"/>
-    <hyperlink ref="F89" r:id="rId85"/>
-    <hyperlink ref="F7" r:id="rId86"/>
-    <hyperlink ref="F16" r:id="rId87"/>
-    <hyperlink ref="F17" r:id="rId88"/>
-    <hyperlink ref="F50" r:id="rId89"/>
-    <hyperlink ref="F75" r:id="rId90"/>
-    <hyperlink ref="F66" r:id="rId91"/>
-    <hyperlink ref="F103" r:id="rId92"/>
-    <hyperlink ref="F101" r:id="rId93"/>
-    <hyperlink ref="F45" r:id="rId94"/>
-    <hyperlink ref="F98" r:id="rId95"/>
-    <hyperlink ref="F36" r:id="rId96" tooltip="Persistent link using digital object identifier"/>
-    <hyperlink ref="F15" r:id="rId97"/>
-    <hyperlink ref="F97" r:id="rId98"/>
-    <hyperlink ref="F38" r:id="rId99"/>
-    <hyperlink ref="F110" r:id="rId100"/>
-    <hyperlink ref="F82" r:id="rId101"/>
-    <hyperlink ref="F111" r:id="rId102" tooltip="Persistent link using digital object identifier"/>
-    <hyperlink ref="F79" r:id="rId103"/>
-    <hyperlink ref="F33" r:id="rId104"/>
-    <hyperlink ref="F91" r:id="rId105"/>
-    <hyperlink ref="F63" r:id="rId106"/>
-    <hyperlink ref="F64" r:id="rId107"/>
-    <hyperlink ref="F8" r:id="rId108"/>
-    <hyperlink ref="F115" r:id="rId109"/>
-    <hyperlink ref="F61" r:id="rId110"/>
-    <hyperlink ref="F11" r:id="rId111"/>
-    <hyperlink ref="F52" r:id="rId112"/>
-    <hyperlink ref="F93" r:id="rId113"/>
-    <hyperlink ref="F53" r:id="rId114" tooltip="Persistent link using digital object identifier"/>
-    <hyperlink ref="F85" r:id="rId115"/>
-    <hyperlink ref="F35" r:id="rId116"/>
-    <hyperlink ref="F37" r:id="rId117"/>
-    <hyperlink ref="F46" r:id="rId118"/>
-    <hyperlink ref="F81" r:id="rId119"/>
-    <hyperlink ref="F32" r:id="rId120"/>
+    <hyperlink ref="F88" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F49" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F58" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F107" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F51" r:id="rId7" tooltip="Open URL link" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F41" r:id="rId8" tooltip="Open URL link" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F21" r:id="rId9" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F24" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F54" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F62" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F67" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F3" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F87" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F77" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F76" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F39" r:id="rId19" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F113" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F42" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="F118" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F14" r:id="rId24" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F121" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F20" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="F40" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="F120" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="F99" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="F57" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="F102" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="F74" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="F96" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="F106" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="F90" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="F12" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="F104" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="F43" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="F65" r:id="rId39" display="https://doi.org/10.1063/1.4869147" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="F6" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="F13" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="F28" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="F100" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="F55" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="F25" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="F116" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="F23" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="F26" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="F60" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="F119" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="F27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="F95" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="F2" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="F59" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="F48" r:id="rId55" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="F30" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="F72" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="F80" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="F34" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="F70" r:id="rId60" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="F92" r:id="rId61" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="F4" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="F112" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="F73" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="F86" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="F108" r:id="rId66" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="F84" r:id="rId67" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="F94" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="F69" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="F68" r:id="rId70" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="F83" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="F117" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="F114" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="F71" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="F105" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="F5" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="F19" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="F109" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="F31" r:id="rId79" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="F47" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="F44" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="F78" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="F56" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="F29" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="F89" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="F7" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="F16" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="F17" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="F50" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="F75" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="F66" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="F103" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="F101" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="F45" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="F98" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="F36" r:id="rId96" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="F15" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="F97" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="F38" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="F110" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="F82" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="F111" r:id="rId102" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="F79" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="F33" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="F91" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="F63" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="F8" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="F115" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="F61" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="F11" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="F52" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="F93" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="F53" r:id="rId113" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="F85" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="F35" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="F37" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="F46" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="F81" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="F32" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId121"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId120"/>
 </worksheet>
 </file>